--- a/public/templates/plantilla_responsables.xlsx
+++ b/public/templates/plantilla_responsables.xlsx
@@ -1,55 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Responsables" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Responsables" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Instrucciones" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Juan Pérez</t>
+  </si>
+  <si>
+    <t>juan.perez@empresa.com</t>
+  </si>
+  <si>
+    <t>+1 555-0101</t>
+  </si>
+  <si>
+    <t>María García</t>
+  </si>
+  <si>
+    <t>maria.garcia@empresa.com</t>
+  </si>
+  <si>
+    <t>+1 555-0102</t>
+  </si>
+  <si>
+    <t>Carlos López</t>
+  </si>
+  <si>
+    <t>carlos.lopez@empresa.com</t>
+  </si>
+  <si>
+    <t>+1 555-0103</t>
+  </si>
+  <si>
+    <t>INSTRUCCIONES PARA CARGA MASIVA DE RESPONSABLES</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1. Complete la información en la hoja "Responsables"</t>
+  </si>
+  <si>
+    <t>2. Puede eliminar las filas de ejemplo antes de agregar sus datos</t>
+  </si>
+  <si>
+    <t>CAMPOS:</t>
+  </si>
+  <si>
+    <t>• Nombre (Requerido): Nombre completo del responsable</t>
+  </si>
+  <si>
+    <t>• Email (Opcional): Correo electrónico del responsable</t>
+  </si>
+  <si>
+    <t>• Teléfono (Opcional): Número de contacto</t>
+  </si>
+  <si>
+    <t>NOTAS IMPORTANTES:</t>
+  </si>
+  <si>
+    <t>• Los responsables duplicados serán omitidos automáticamente</t>
+  </si>
+  <si>
+    <t>• Guarde el archivo en formato .xlsx antes de subirlo</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="ED7D31"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ED7D31"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,15 +134,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="TablaResponsables" displayName="TablaResponsables" ref="A1:C4" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:C4">
+    <filterColumn colId="0" hiddenButton="0"/>
+    <filterColumn colId="1" hiddenButton="0"/>
+    <filterColumn colId="2" hiddenButton="0"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Nombre" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Email" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Teléfono" totalsRowFunction="none"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,64 +495,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="ED7D31"/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Nombre</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Teléfono</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Juan Pérez</v>
-      </c>
-      <c r="B2" t="str">
-        <v>juan.perez@empresa.com</v>
-      </c>
-      <c r="C2" t="str">
-        <v>+51 987654321</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>María García</v>
-      </c>
-      <c r="B3" t="str">
-        <v>maria.garcia@empresa.com</v>
-      </c>
-      <c r="C3" t="str">
-        <v>+51 912345678</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Carlos López</v>
-      </c>
-      <c r="B4" t="str">
-        <v>carlos.lopez@empresa.com</v>
-      </c>
-      <c r="C4" t="str">
-        <v>+51 998765432</v>
+    <row r="1" ht="25" customHeight="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="4472C4"/>
+  </sheetPr>
+  <dimension ref="A1:A13"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>